--- a/实验结果.xlsx
+++ b/实验结果.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lunwen\CSV\Pcaps\2s\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lunwen\CSV\application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FD03E3-21CF-44CF-B3B5-905B614CCEE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85A89A6-2657-4252-BBBF-F001DCB40632}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="14985" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,42 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>gc</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+  <si>
+    <t>方法</t>
+  </si>
+  <si>
+    <t>精确率</t>
+  </si>
+  <si>
+    <t>F1-Score</t>
+  </si>
+  <si>
+    <t>召回率</t>
+  </si>
+  <si>
+    <t>训练时长</t>
+  </si>
+  <si>
+    <t>测试时长</t>
+  </si>
+  <si>
+    <t>内存开销</t>
+  </si>
+  <si>
+    <t>流超时时间</t>
+  </si>
+  <si>
+    <t>gcForest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gcForestCS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -32,43 +60,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>精确率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召回率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>训练时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内存开销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F1-Score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24.67M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gcCS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25.14M</t>
+    <t>2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>randomForest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比实验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,8 +148,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -454,26 +493,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -487,57 +529,493 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>99.86</v>
+        <v>90.57</v>
       </c>
       <c r="C2">
-        <v>99.82</v>
+        <v>91.01</v>
       </c>
       <c r="D2">
-        <v>99.72</v>
+        <v>90.52</v>
       </c>
       <c r="E2">
-        <v>99.62</v>
+        <v>90.57</v>
       </c>
       <c r="F2">
-        <v>189.54</v>
+        <v>39.65</v>
       </c>
       <c r="G2">
-        <v>11.94</v>
-      </c>
-      <c r="H2" t="s">
+        <v>3.67</v>
+      </c>
+      <c r="H2">
+        <v>14.2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>99.87</v>
+      <c r="B3" s="1">
+        <v>0.89939999999999998</v>
       </c>
       <c r="C3">
-        <v>99.82</v>
+        <v>90.55</v>
       </c>
       <c r="D3">
-        <v>99.68</v>
+        <v>89.84</v>
       </c>
       <c r="E3">
-        <v>99.75</v>
+        <v>89.94</v>
       </c>
       <c r="F3">
-        <v>692.11</v>
+        <v>13.59</v>
       </c>
       <c r="G3">
-        <v>29.06</v>
-      </c>
-      <c r="H3" t="s">
+        <v>1.78</v>
+      </c>
+      <c r="H3">
+        <v>9.67</v>
+      </c>
+      <c r="I3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>90.89</v>
+      </c>
+      <c r="C4">
+        <v>91.37</v>
+      </c>
+      <c r="D4">
+        <v>90.89</v>
+      </c>
+      <c r="E4">
+        <v>90.89</v>
+      </c>
+      <c r="F4">
+        <v>34.56</v>
+      </c>
+      <c r="G4">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H4">
+        <v>11.47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>90.03</v>
+      </c>
+      <c r="C5">
+        <v>90.7</v>
+      </c>
+      <c r="D5">
+        <v>90.06</v>
+      </c>
+      <c r="E5">
+        <v>90.03</v>
+      </c>
+      <c r="F5">
+        <v>13.71</v>
+      </c>
+      <c r="G5">
+        <v>1.74</v>
+      </c>
+      <c r="H5">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>88.73</v>
+      </c>
+      <c r="C6">
+        <v>89.75</v>
+      </c>
+      <c r="D6">
+        <v>88.82</v>
+      </c>
+      <c r="E6">
+        <v>88.73</v>
+      </c>
+      <c r="F6">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G6">
+        <v>2.09</v>
+      </c>
+      <c r="H6">
+        <v>12.06</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>88.42</v>
+      </c>
+      <c r="C7">
+        <v>89.46</v>
+      </c>
+      <c r="D7">
+        <v>88.49</v>
+      </c>
+      <c r="E7">
+        <v>88.42</v>
+      </c>
+      <c r="F7">
+        <v>13.29</v>
+      </c>
+      <c r="G7">
+        <v>1.69</v>
+      </c>
+      <c r="H7">
+        <v>8.91</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>87.8</v>
+      </c>
+      <c r="C8">
+        <v>89.02</v>
+      </c>
+      <c r="D8">
+        <v>87.82</v>
+      </c>
+      <c r="E8">
+        <v>87.8</v>
+      </c>
+      <c r="F8">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="G8">
+        <v>1.9</v>
+      </c>
+      <c r="H8">
+        <v>12.53</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>87.52</v>
+      </c>
+      <c r="C9">
+        <v>89.07</v>
+      </c>
+      <c r="D9">
+        <v>87.7</v>
+      </c>
+      <c r="E9">
+        <v>87.52</v>
+      </c>
+      <c r="F9">
+        <v>15.16</v>
+      </c>
+      <c r="G9">
+        <v>2.34</v>
+      </c>
+      <c r="H9">
+        <v>10.35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>88.03</v>
+      </c>
+      <c r="C10">
+        <v>88.54</v>
+      </c>
+      <c r="D10">
+        <v>88.01</v>
+      </c>
+      <c r="E10">
+        <v>88.03</v>
+      </c>
+      <c r="F10">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="G10">
+        <v>1.84</v>
+      </c>
+      <c r="H10">
+        <v>11.64</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>88.03</v>
+      </c>
+      <c r="C11">
+        <v>88.44</v>
+      </c>
+      <c r="D11">
+        <v>88.02</v>
+      </c>
+      <c r="E11">
+        <v>88.03</v>
+      </c>
+      <c r="F11">
+        <v>13.19</v>
+      </c>
+      <c r="G11">
+        <v>1.64</v>
+      </c>
+      <c r="H11">
+        <v>9.02</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>82.52</v>
+      </c>
+      <c r="C12">
+        <v>82.39</v>
+      </c>
+      <c r="D12">
+        <v>82.32</v>
+      </c>
+      <c r="E12">
+        <v>82.52</v>
+      </c>
+      <c r="F12">
+        <v>14.63</v>
+      </c>
+      <c r="G12">
+        <v>1.79</v>
+      </c>
+      <c r="H12">
+        <v>10.77</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="C13">
+        <v>81.99</v>
+      </c>
+      <c r="D13">
+        <v>81.63</v>
+      </c>
+      <c r="E13">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="F13">
+        <v>10.89</v>
+      </c>
+      <c r="G13">
+        <v>0.92</v>
+      </c>
+      <c r="H13">
+        <v>7.61</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>74.87</v>
+      </c>
+      <c r="C14">
+        <v>77.069999999999993</v>
+      </c>
+      <c r="D14">
+        <v>75.33</v>
+      </c>
+      <c r="E14">
+        <v>74.87</v>
+      </c>
+      <c r="F14">
+        <v>15.91</v>
+      </c>
+      <c r="G14">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H14">
+        <v>12.92</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>77.010000000000005</v>
+      </c>
+      <c r="C15">
+        <v>78.31</v>
+      </c>
+      <c r="D15">
+        <v>77.33</v>
+      </c>
+      <c r="E15">
+        <v>77.010000000000005</v>
+      </c>
+      <c r="F15">
+        <v>12.83</v>
+      </c>
+      <c r="G15">
+        <v>1.66</v>
+      </c>
+      <c r="H15">
+        <v>8.16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>84.45</v>
+      </c>
+      <c r="C18">
+        <v>85.88</v>
+      </c>
+      <c r="D18">
+        <v>82.5</v>
+      </c>
+      <c r="E18">
+        <v>84.45</v>
+      </c>
+      <c r="G18">
+        <v>2.48</v>
+      </c>
+      <c r="H18">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>89.52</v>
+      </c>
+      <c r="C19">
+        <v>89.68</v>
+      </c>
+      <c r="D19">
+        <v>89.45</v>
+      </c>
+      <c r="E19">
+        <v>89.52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>86.05</v>
+      </c>
+      <c r="C20">
+        <v>86.35</v>
+      </c>
+      <c r="D20">
+        <v>86.17</v>
+      </c>
+      <c r="E20">
+        <v>86.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>83.31</v>
+      </c>
+      <c r="C21">
+        <v>83.83</v>
+      </c>
+      <c r="D21">
+        <v>81.260000000000005</v>
+      </c>
+      <c r="E21">
+        <v>83.31</v>
       </c>
     </row>
   </sheetData>
